--- a/data/poas/poas22.xlsx
+++ b/data/poas/poas22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93104110-DF8E-F341-8340-EE1BCE5AE32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D224E2-74F2-9245-B8B4-531C2B54D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,16 +223,10 @@
     <t>PFA</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>SEL</t>
   </si>
   <si>
     <t>IVW</t>
-  </si>
-  <si>
-    <t>NON-SELECT</t>
   </si>
   <si>
     <t>BRD</t>
@@ -244,16 +238,10 @@
     <t>ARABIC-MODERN STANDARD</t>
   </si>
   <si>
-    <t>1 YR</t>
-  </si>
-  <si>
     <t>92A</t>
   </si>
   <si>
     <t>SPANISH-AMERICAN</t>
-  </si>
-  <si>
-    <t>4 YR</t>
   </si>
   <si>
     <t>INVOLUNTARY WITHDRAW</t>
@@ -289,25 +277,16 @@
     <t>91C</t>
   </si>
   <si>
-    <t>2 YR</t>
-  </si>
-  <si>
     <t>RUSSIAN</t>
   </si>
   <si>
     <t>HINDI</t>
   </si>
   <si>
-    <t>3 YR</t>
-  </si>
-  <si>
     <t>91M</t>
   </si>
   <si>
     <t>09L</t>
-  </si>
-  <si>
-    <t>5 YR</t>
   </si>
   <si>
     <t>94S</t>
@@ -359,9 +338,6 @@
   </si>
   <si>
     <t>URDU</t>
-  </si>
-  <si>
-    <t>NON SELECTED</t>
   </si>
   <si>
     <t>31B</t>
@@ -416,9 +392,6 @@
   </si>
   <si>
     <t>VOLUNTARY WITHDRAWAL</t>
-  </si>
-  <si>
-    <t>6 YR</t>
   </si>
   <si>
     <t>42A</t>
@@ -482,6 +455,33 @@
   </si>
   <si>
     <t>SEC</t>
+  </si>
+  <si>
+    <t>1YR</t>
+  </si>
+  <si>
+    <t>2YR</t>
+  </si>
+  <si>
+    <t>3YR</t>
+  </si>
+  <si>
+    <t>4YR</t>
+  </si>
+  <si>
+    <t>5YR</t>
+  </si>
+  <si>
+    <t>6YR</t>
+  </si>
+  <si>
+    <t>NON-SELECTED</t>
+  </si>
+  <si>
+    <t>NON SELECTEDED</t>
+  </si>
+  <si>
+    <t>SELECTEDED</t>
   </si>
 </sst>
 </file>
@@ -9742,7 +9742,7 @@
   </sheetPr>
   <dimension ref="A1:AJ482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -9785,7 +9785,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>22</v>
       </c>
       <c r="T2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9960,10 +9960,10 @@
         <v>22</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9989,7 +9989,7 @@
         <v>300</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>20</v>
@@ -10022,10 +10022,10 @@
         <v>22</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10084,10 +10084,10 @@
         <v>22</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10098,7 +10098,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>22</v>
@@ -10146,10 +10146,10 @@
         <v>22</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10175,7 +10175,7 @@
         <v>285</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>20</v>
@@ -10211,10 +10211,10 @@
         <v>22</v>
       </c>
       <c r="T7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10276,10 +10276,10 @@
         <v>22</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10290,7 +10290,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>23</v>
@@ -10305,7 +10305,7 @@
         <v>259</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>24</v>
@@ -10341,10 +10341,10 @@
         <v>22</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10403,10 +10403,10 @@
         <v>22</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10465,10 +10465,10 @@
         <v>22</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10479,7 +10479,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
@@ -10494,7 +10494,7 @@
         <v>268</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>20</v>
@@ -10530,10 +10530,10 @@
         <v>22</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10544,7 +10544,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
@@ -10571,7 +10571,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M13" s="13">
         <v>115</v>
@@ -10595,10 +10595,10 @@
         <v>22</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10657,10 +10657,10 @@
         <v>22</v>
       </c>
       <c r="T14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10722,10 +10722,10 @@
         <v>22</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10751,7 +10751,7 @@
         <v>297</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>24</v>
@@ -10784,10 +10784,10 @@
         <v>22</v>
       </c>
       <c r="T16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:36" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10860,7 +10860,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>22</v>
@@ -10875,7 +10875,7 @@
         <v>259</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>24</v>
@@ -10887,7 +10887,7 @@
         <v>37</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M18" s="13">
         <v>124</v>
@@ -10911,10 +10911,10 @@
         <v>22</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:36" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10940,7 +10940,7 @@
         <v>232</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
@@ -10976,10 +10976,10 @@
         <v>22</v>
       </c>
       <c r="T19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U19" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11005,7 +11005,7 @@
         <v>300</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>20</v>
@@ -11017,7 +11017,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M20" s="13">
         <v>121</v>
@@ -11041,10 +11041,10 @@
         <v>22</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -11085,7 +11085,7 @@
         <v>295</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>20</v>
@@ -11118,10 +11118,10 @@
         <v>22</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -11162,7 +11162,7 @@
         <v>266</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>24</v>
@@ -11195,10 +11195,10 @@
         <v>22</v>
       </c>
       <c r="T22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -11239,7 +11239,7 @@
         <v>295</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>20</v>
@@ -11275,10 +11275,10 @@
         <v>22</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -11352,10 +11352,10 @@
         <v>22</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -11399,7 +11399,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -11429,10 +11429,10 @@
         <v>22</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -11506,10 +11506,10 @@
         <v>22</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -11535,7 +11535,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>22</v>
@@ -11583,10 +11583,10 @@
         <v>22</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -11660,10 +11660,10 @@
         <v>22</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -11737,10 +11737,10 @@
         <v>22</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -11814,10 +11814,10 @@
         <v>22</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -11891,10 +11891,10 @@
         <v>22</v>
       </c>
       <c r="T31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -11920,7 +11920,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>22</v>
@@ -11935,7 +11935,7 @@
         <v>259</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>24</v>
@@ -11968,10 +11968,10 @@
         <v>22</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -12048,10 +12048,10 @@
         <v>22</v>
       </c>
       <c r="T33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -12077,7 +12077,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>22</v>
@@ -12092,7 +12092,7 @@
         <v>240</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>24</v>
@@ -12169,10 +12169,10 @@
         <v>275</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -12203,10 +12203,10 @@
         <v>22</v>
       </c>
       <c r="T35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U35" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="12" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>24</v>
@@ -12279,10 +12279,10 @@
         <v>22</v>
       </c>
       <c r="T36" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U36" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U36" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -12323,7 +12323,7 @@
         <v>282</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>24</v>
@@ -12357,10 +12357,10 @@
         <v>22</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -12380,13 +12380,13 @@
     </row>
     <row r="38" spans="1:36" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>22</v>
@@ -12435,10 +12435,10 @@
         <v>22</v>
       </c>
       <c r="T38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U38" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -12461,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>42</v>
@@ -12482,7 +12482,7 @@
         <v>26</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J39" s="18">
         <v>0</v>
@@ -12515,10 +12515,10 @@
         <v>22</v>
       </c>
       <c r="T39" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -12593,10 +12593,10 @@
         <v>22</v>
       </c>
       <c r="T40" s="22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -12622,7 +12622,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>22</v>
@@ -12637,7 +12637,7 @@
         <v>259</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>24</v>
@@ -12671,10 +12671,10 @@
         <v>22</v>
       </c>
       <c r="T41" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="42" spans="1:36" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>36</v>
@@ -12749,10 +12749,10 @@
         <v>22</v>
       </c>
       <c r="T42" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -12793,7 +12793,7 @@
         <v>277</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>20</v>
@@ -12827,10 +12827,10 @@
         <v>22</v>
       </c>
       <c r="T43" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
@@ -12871,7 +12871,7 @@
         <v>251</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>24</v>
@@ -12905,10 +12905,10 @@
         <v>22</v>
       </c>
       <c r="T44" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
@@ -12934,7 +12934,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>22</v>
@@ -12983,10 +12983,10 @@
         <v>22</v>
       </c>
       <c r="T45" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
@@ -13012,7 +13012,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>22</v>
@@ -13061,10 +13061,10 @@
         <v>22</v>
       </c>
       <c r="T46" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
@@ -13117,7 +13117,7 @@
         <v>29</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M47" s="18">
         <v>110</v>
@@ -13141,10 +13141,10 @@
         <v>22</v>
       </c>
       <c r="T47" s="22" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -13185,7 +13185,7 @@
         <v>283</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>20</v>
@@ -13219,10 +13219,10 @@
         <v>22</v>
       </c>
       <c r="T48" s="22" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U48" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
@@ -13263,7 +13263,7 @@
         <v>295</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>24</v>
@@ -13297,10 +13297,10 @@
         <v>22</v>
       </c>
       <c r="T49" s="22" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U49" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
@@ -13375,10 +13375,10 @@
         <v>22</v>
       </c>
       <c r="T50" s="22" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U50" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -13404,7 +13404,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>22</v>
@@ -13455,10 +13455,10 @@
         <v>22</v>
       </c>
       <c r="T51" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
@@ -13535,10 +13535,10 @@
         <v>22</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
@@ -13579,7 +13579,7 @@
         <v>288</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>20</v>
@@ -13613,10 +13613,10 @@
         <v>22</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
@@ -13693,10 +13693,10 @@
         <v>22</v>
       </c>
       <c r="T54" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U54" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
@@ -13722,7 +13722,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>22</v>
@@ -13773,10 +13773,10 @@
         <v>22</v>
       </c>
       <c r="T55" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U55" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
@@ -13853,10 +13853,10 @@
         <v>22</v>
       </c>
       <c r="T56" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
@@ -13897,7 +13897,7 @@
         <v>230</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>20</v>
@@ -13977,7 +13977,7 @@
         <v>215</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>24</v>
@@ -13989,7 +13989,7 @@
         <v>31</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M58" s="18">
         <v>116</v>
@@ -14013,10 +14013,10 @@
         <v>22</v>
       </c>
       <c r="T58" s="22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U58" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
@@ -14137,7 +14137,7 @@
         <v>248</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>24</v>
@@ -14149,7 +14149,7 @@
         <v>36</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M60" s="18">
         <v>104</v>
@@ -14173,10 +14173,10 @@
         <v>22</v>
       </c>
       <c r="T60" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U60" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
@@ -14253,10 +14253,10 @@
         <v>22</v>
       </c>
       <c r="T61" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U61" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U61" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
@@ -14333,10 +14333,10 @@
         <v>22</v>
       </c>
       <c r="T62" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U62" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
@@ -14413,10 +14413,10 @@
         <v>22</v>
       </c>
       <c r="T63" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U63" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
@@ -14493,10 +14493,10 @@
         <v>22</v>
       </c>
       <c r="T64" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U64" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U64" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
@@ -14573,10 +14573,10 @@
         <v>22</v>
       </c>
       <c r="T65" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U65" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U65" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
@@ -14617,7 +14617,7 @@
         <v>283</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>24</v>
@@ -14653,10 +14653,10 @@
         <v>22</v>
       </c>
       <c r="T66" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
@@ -14682,7 +14682,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>22</v>
@@ -14697,7 +14697,7 @@
         <v>299</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>24</v>
@@ -14709,7 +14709,7 @@
         <v>29</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M67" s="18">
         <v>116</v>
@@ -14733,10 +14733,10 @@
         <v>22</v>
       </c>
       <c r="T67" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U67" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U67" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
@@ -14777,7 +14777,7 @@
         <v>246</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>24</v>
@@ -14813,10 +14813,10 @@
         <v>22</v>
       </c>
       <c r="T68" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
@@ -14893,10 +14893,10 @@
         <v>22</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
@@ -14973,10 +14973,10 @@
         <v>22</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U70" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
@@ -15053,10 +15053,10 @@
         <v>22</v>
       </c>
       <c r="T71" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U71" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U71" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
@@ -15097,7 +15097,7 @@
         <v>251</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>20</v>
@@ -15133,10 +15133,10 @@
         <v>22</v>
       </c>
       <c r="T72" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U72" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U72" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
@@ -15213,10 +15213,10 @@
         <v>22</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
@@ -15293,10 +15293,10 @@
         <v>22</v>
       </c>
       <c r="T74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U74" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U74" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15322,7 +15322,7 @@
         <v>282</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>20</v>
@@ -15358,10 +15358,10 @@
         <v>22</v>
       </c>
       <c r="T75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U75" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U75" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15423,10 +15423,10 @@
         <v>22</v>
       </c>
       <c r="T76" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U76" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U76" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15452,10 +15452,10 @@
         <v>268</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J77" s="18">
         <v>4</v>
@@ -15488,10 +15488,10 @@
         <v>22</v>
       </c>
       <c r="T77" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U77" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U77" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15517,7 +15517,7 @@
         <v>268</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>24</v>
@@ -15553,10 +15553,10 @@
         <v>22</v>
       </c>
       <c r="T78" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U78" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U78" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15618,10 +15618,10 @@
         <v>22</v>
       </c>
       <c r="T79" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U79" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U79" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15683,10 +15683,10 @@
         <v>22</v>
       </c>
       <c r="T80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U80" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U80" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15724,7 +15724,7 @@
         <v>27</v>
       </c>
       <c r="L81" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M81" s="18">
         <v>119</v>
@@ -15748,10 +15748,10 @@
         <v>22</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U81" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15813,10 +15813,10 @@
         <v>22</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U82" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15827,7 +15827,7 @@
         <v>36</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>22</v>
@@ -15842,7 +15842,7 @@
         <v>278</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>20</v>
@@ -15878,10 +15878,10 @@
         <v>22</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15907,7 +15907,7 @@
         <v>276</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>20</v>
@@ -15943,21 +15943,21 @@
         <v>22</v>
       </c>
       <c r="T84" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U84" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U84" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>22</v>
@@ -16008,10 +16008,10 @@
         <v>22</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U85" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16037,7 +16037,7 @@
         <v>257</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>20</v>
@@ -16073,10 +16073,10 @@
         <v>22</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U86" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16087,7 +16087,7 @@
         <v>36</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>22</v>
@@ -16203,10 +16203,10 @@
         <v>22</v>
       </c>
       <c r="T88" s="23" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U88" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16268,10 +16268,10 @@
         <v>22</v>
       </c>
       <c r="T89" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U89" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U89" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16297,7 +16297,7 @@
         <v>297</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>20</v>
@@ -16333,15 +16333,15 @@
         <v>22</v>
       </c>
       <c r="T90" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U90" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U90" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>36</v>
@@ -16463,10 +16463,10 @@
         <v>22</v>
       </c>
       <c r="T92" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U92" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U92" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16528,10 +16528,10 @@
         <v>22</v>
       </c>
       <c r="T93" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U93" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16593,10 +16593,10 @@
         <v>22</v>
       </c>
       <c r="T94" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U94" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16658,10 +16658,10 @@
         <v>22</v>
       </c>
       <c r="T95" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U95" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U95" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16687,7 +16687,7 @@
         <v>250</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>20</v>
@@ -16723,10 +16723,10 @@
         <v>22</v>
       </c>
       <c r="T96" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U96" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U96" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16737,7 +16737,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>22</v>
@@ -16786,10 +16786,10 @@
         <v>22</v>
       </c>
       <c r="T97" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U97" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16815,7 +16815,7 @@
         <v>275</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>24</v>
@@ -16849,10 +16849,10 @@
         <v>22</v>
       </c>
       <c r="T98" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U98" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16878,7 +16878,7 @@
         <v>233</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>20</v>
@@ -16912,10 +16912,10 @@
         <v>22</v>
       </c>
       <c r="T99" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U99" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16941,7 +16941,7 @@
         <v>243</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>20</v>
@@ -16974,10 +16974,10 @@
         <v>22</v>
       </c>
       <c r="T100" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U100" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U100" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17003,7 +17003,7 @@
         <v>264</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>20</v>
@@ -17037,10 +17037,10 @@
         <v>22</v>
       </c>
       <c r="T101" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U101" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17066,7 +17066,7 @@
         <v>230</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>24</v>
@@ -17078,7 +17078,7 @@
         <v>28</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M102" s="13">
         <v>108</v>
@@ -17102,10 +17102,10 @@
         <v>22</v>
       </c>
       <c r="T102" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U102" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U102" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17165,10 +17165,10 @@
         <v>22</v>
       </c>
       <c r="T103" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U103" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U103" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17291,10 +17291,10 @@
         <v>22</v>
       </c>
       <c r="T105" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17320,7 +17320,7 @@
         <v>300</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>24</v>
@@ -17354,10 +17354,10 @@
         <v>22</v>
       </c>
       <c r="T106" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17417,10 +17417,10 @@
         <v>22</v>
       </c>
       <c r="T107" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U107" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17431,7 +17431,7 @@
         <v>36</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>22</v>
@@ -17480,10 +17480,10 @@
         <v>22</v>
       </c>
       <c r="T108" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17509,7 +17509,7 @@
         <v>295</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>24</v>
@@ -17545,10 +17545,10 @@
         <v>22</v>
       </c>
       <c r="T109" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U109" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U109" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17608,10 +17608,10 @@
         <v>22</v>
       </c>
       <c r="T110" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U110" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17637,7 +17637,7 @@
         <v>288</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>20</v>
@@ -17671,10 +17671,10 @@
         <v>22</v>
       </c>
       <c r="T111" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U111" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17700,7 +17700,7 @@
         <v>275</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>20</v>
@@ -17712,7 +17712,7 @@
         <v>26</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M112" s="13">
         <v>125</v>
@@ -17736,10 +17736,10 @@
         <v>22</v>
       </c>
       <c r="T112" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U112" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U112" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17750,7 +17750,7 @@
         <v>39</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>22</v>
@@ -17801,15 +17801,15 @@
         <v>22</v>
       </c>
       <c r="T113" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U113" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>39</v>
@@ -17866,10 +17866,10 @@
         <v>22</v>
       </c>
       <c r="T114" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U114" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17898,7 +17898,7 @@
         <v>26</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J115" s="18">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>28</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M115" s="18">
         <v>104</v>
@@ -17945,7 +17945,7 @@
         <v>36</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>22</v>
@@ -18061,10 +18061,10 @@
         <v>22</v>
       </c>
       <c r="T117" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U117" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18090,7 +18090,7 @@
         <v>270</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>20</v>
@@ -18126,10 +18126,10 @@
         <v>22</v>
       </c>
       <c r="T118" s="21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="U118" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18155,7 +18155,7 @@
         <v>268</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>20</v>
@@ -18191,10 +18191,10 @@
         <v>22</v>
       </c>
       <c r="T119" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U119" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U119" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18220,7 +18220,7 @@
         <v>239</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>24</v>
@@ -18270,7 +18270,7 @@
         <v>36</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>22</v>
@@ -18285,7 +18285,7 @@
         <v>237</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>20</v>
@@ -18297,7 +18297,7 @@
         <v>27</v>
       </c>
       <c r="L121" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M121" s="18">
         <v>132</v>
@@ -18321,10 +18321,10 @@
         <v>22</v>
       </c>
       <c r="T121" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U121" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U121" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18350,7 +18350,7 @@
         <v>273</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>20</v>
@@ -18386,10 +18386,10 @@
         <v>22</v>
       </c>
       <c r="T122" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U122" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U122" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18415,7 +18415,7 @@
         <v>277</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>20</v>
@@ -18451,10 +18451,10 @@
         <v>22</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U123" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U123" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18581,10 +18581,10 @@
         <v>22</v>
       </c>
       <c r="T125" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U125" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18610,7 +18610,7 @@
         <v>293</v>
       </c>
       <c r="H126" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>20</v>
@@ -18646,10 +18646,10 @@
         <v>22</v>
       </c>
       <c r="T126" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U126" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18711,10 +18711,10 @@
         <v>22</v>
       </c>
       <c r="T127" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U127" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18740,7 +18740,7 @@
         <v>245</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>20</v>
@@ -18776,10 +18776,10 @@
         <v>22</v>
       </c>
       <c r="T128" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U128" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18817,7 +18817,7 @@
         <v>26</v>
       </c>
       <c r="L129" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M129" s="18">
         <v>115</v>
@@ -18906,15 +18906,15 @@
         <v>22</v>
       </c>
       <c r="T130" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U130" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>39</v>
@@ -18935,7 +18935,7 @@
         <v>260</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>20</v>
@@ -18971,10 +18971,10 @@
         <v>22</v>
       </c>
       <c r="T131" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U131" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19065,7 +19065,7 @@
         <v>281</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>24</v>
@@ -19101,10 +19101,10 @@
         <v>22</v>
       </c>
       <c r="T133" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U133" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19115,7 +19115,7 @@
         <v>36</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>22</v>
@@ -19231,10 +19231,10 @@
         <v>22</v>
       </c>
       <c r="T135" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U135" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19296,10 +19296,10 @@
         <v>22</v>
       </c>
       <c r="T136" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U136" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19325,7 +19325,7 @@
         <v>229</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>24</v>
@@ -19390,7 +19390,7 @@
         <v>270</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>20</v>
@@ -19426,10 +19426,10 @@
         <v>22</v>
       </c>
       <c r="T138" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U138" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U138" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19556,10 +19556,10 @@
         <v>23</v>
       </c>
       <c r="T140" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U140" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U140" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19570,7 +19570,7 @@
         <v>36</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>22</v>
@@ -19621,10 +19621,10 @@
         <v>23</v>
       </c>
       <c r="T141" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U141" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19650,7 +19650,7 @@
         <v>224</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>20</v>
@@ -19686,10 +19686,10 @@
         <v>23</v>
       </c>
       <c r="T142" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U142" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19715,7 +19715,7 @@
         <v>210</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I143" s="16" t="s">
         <v>20</v>
@@ -19751,21 +19751,21 @@
         <v>23</v>
       </c>
       <c r="T143" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>22</v>
@@ -19816,10 +19816,10 @@
         <v>23</v>
       </c>
       <c r="T144" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U144" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19881,10 +19881,10 @@
         <v>23</v>
       </c>
       <c r="T145" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U145" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19895,7 +19895,7 @@
         <v>36</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>22</v>
@@ -19946,10 +19946,10 @@
         <v>23</v>
       </c>
       <c r="T146" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U146" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U146" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20011,10 +20011,10 @@
         <v>23</v>
       </c>
       <c r="T147" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U147" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U147" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20040,7 +20040,7 @@
         <v>218</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>20</v>
@@ -20076,10 +20076,10 @@
         <v>23</v>
       </c>
       <c r="T148" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U148" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U148" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20090,7 +20090,7 @@
         <v>36</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>22</v>
@@ -20105,7 +20105,7 @@
         <v>290</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I149" s="16" t="s">
         <v>24</v>
@@ -20141,10 +20141,10 @@
         <v>23</v>
       </c>
       <c r="T149" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U149" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U149" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20206,10 +20206,10 @@
         <v>23</v>
       </c>
       <c r="T150" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20271,10 +20271,10 @@
         <v>23</v>
       </c>
       <c r="T151" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U151" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20303,7 +20303,7 @@
         <v>26</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J152" s="18">
         <v>0</v>
@@ -20336,10 +20336,10 @@
         <v>23</v>
       </c>
       <c r="T152" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U152" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U152" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20365,7 +20365,7 @@
         <v>235</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>20</v>
@@ -20401,10 +20401,10 @@
         <v>23</v>
       </c>
       <c r="T153" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U153" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20466,10 +20466,10 @@
         <v>23</v>
       </c>
       <c r="T154" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U154" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20495,7 +20495,7 @@
         <v>269</v>
       </c>
       <c r="H155" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>20</v>
@@ -20507,7 +20507,7 @@
         <v>28</v>
       </c>
       <c r="L155" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M155" s="18">
         <v>132</v>
@@ -20531,10 +20531,10 @@
         <v>23</v>
       </c>
       <c r="T155" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U155" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20560,7 +20560,7 @@
         <v>248</v>
       </c>
       <c r="H156" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I156" s="16" t="s">
         <v>20</v>
@@ -20596,15 +20596,15 @@
         <v>23</v>
       </c>
       <c r="T156" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U156" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U156" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>36</v>
@@ -20661,10 +20661,10 @@
         <v>23</v>
       </c>
       <c r="T157" s="23" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U157" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20690,7 +20690,7 @@
         <v>279</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>24</v>
@@ -20726,10 +20726,10 @@
         <v>23</v>
       </c>
       <c r="T158" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="U158" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U158" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20755,7 +20755,7 @@
         <v>237</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I159" s="16" t="s">
         <v>20</v>
@@ -20791,10 +20791,10 @@
         <v>23</v>
       </c>
       <c r="T159" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U159" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20805,7 +20805,7 @@
         <v>36</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>22</v>
@@ -20856,10 +20856,10 @@
         <v>23</v>
       </c>
       <c r="T160" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="U160" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U160" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20885,7 +20885,7 @@
         <v>253</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I161" s="16" t="s">
         <v>20</v>
@@ -20921,10 +20921,10 @@
         <v>23</v>
       </c>
       <c r="T161" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U161" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20986,10 +20986,10 @@
         <v>23</v>
       </c>
       <c r="T162" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U162" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21051,10 +21051,10 @@
         <v>23</v>
       </c>
       <c r="T163" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U163" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21080,7 +21080,7 @@
         <v>278</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>24</v>
@@ -21092,7 +21092,7 @@
         <v>36</v>
       </c>
       <c r="L164" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M164" s="18">
         <v>124</v>
@@ -21116,10 +21116,10 @@
         <v>23</v>
       </c>
       <c r="T164" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U164" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21181,10 +21181,10 @@
         <v>23</v>
       </c>
       <c r="T165" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U165" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U165" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21246,10 +21246,10 @@
         <v>23</v>
       </c>
       <c r="T166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U166" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U166" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21340,7 +21340,7 @@
         <v>241</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I168" s="16" t="s">
         <v>20</v>
@@ -21376,10 +21376,10 @@
         <v>23</v>
       </c>
       <c r="T168" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U168" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21405,7 +21405,7 @@
         <v>236</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I169" s="16" t="s">
         <v>20</v>
@@ -21441,10 +21441,10 @@
         <v>23</v>
       </c>
       <c r="T169" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U169" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U169" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21470,7 +21470,7 @@
         <v>291</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I170" s="16" t="s">
         <v>20</v>
@@ -21506,10 +21506,10 @@
         <v>23</v>
       </c>
       <c r="T170" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U170" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U170" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21535,7 +21535,7 @@
         <v>234</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I171" s="16" t="s">
         <v>24</v>
@@ -21571,10 +21571,10 @@
         <v>23</v>
       </c>
       <c r="T171" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U171" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U171" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21636,10 +21636,10 @@
         <v>23</v>
       </c>
       <c r="T172" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U172" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21665,7 +21665,7 @@
         <v>212</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I173" s="16" t="s">
         <v>20</v>
@@ -21677,7 +21677,7 @@
         <v>23</v>
       </c>
       <c r="L173" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M173" s="18">
         <v>100</v>
@@ -21715,7 +21715,7 @@
         <v>36</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>22</v>
@@ -21766,10 +21766,10 @@
         <v>23</v>
       </c>
       <c r="T174" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U174" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U174" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21795,7 +21795,7 @@
         <v>277</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I175" s="16" t="s">
         <v>20</v>
@@ -21831,10 +21831,10 @@
         <v>23</v>
       </c>
       <c r="T175" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U175" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U175" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21896,10 +21896,10 @@
         <v>23</v>
       </c>
       <c r="T176" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U176" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U176" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21961,10 +21961,10 @@
         <v>23</v>
       </c>
       <c r="T177" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U177" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22026,10 +22026,10 @@
         <v>23</v>
       </c>
       <c r="T178" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U178" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22091,10 +22091,10 @@
         <v>23</v>
       </c>
       <c r="T179" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U179" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22120,7 +22120,7 @@
         <v>235</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I180" s="16" t="s">
         <v>20</v>
@@ -22185,7 +22185,7 @@
         <v>249</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I181" s="16" t="s">
         <v>20</v>
@@ -22221,10 +22221,10 @@
         <v>23</v>
       </c>
       <c r="T181" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U181" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22235,7 +22235,7 @@
         <v>39</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>22</v>
@@ -22251,7 +22251,7 @@
         <v>26</v>
       </c>
       <c r="I182" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J182" s="18">
         <v>2</v>
@@ -22284,10 +22284,10 @@
         <v>23</v>
       </c>
       <c r="T182" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U182" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22349,10 +22349,10 @@
         <v>23</v>
       </c>
       <c r="T183" s="23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U183" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22414,15 +22414,15 @@
         <v>23</v>
       </c>
       <c r="T184" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U184" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>36</v>
@@ -22493,7 +22493,7 @@
         <v>36</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>22</v>
@@ -22508,7 +22508,7 @@
         <v>243</v>
       </c>
       <c r="H186" s="16" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I186" s="16" t="s">
         <v>24</v>
@@ -22544,10 +22544,10 @@
         <v>23</v>
       </c>
       <c r="T186" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U186" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22609,10 +22609,10 @@
         <v>23</v>
       </c>
       <c r="T187" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U187" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22674,10 +22674,10 @@
         <v>23</v>
       </c>
       <c r="T188" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U188" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22739,10 +22739,10 @@
         <v>23</v>
       </c>
       <c r="T189" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U189" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22753,7 +22753,7 @@
         <v>39</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>22</v>
@@ -22804,10 +22804,10 @@
         <v>23</v>
       </c>
       <c r="T190" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U190" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22845,7 +22845,7 @@
         <v>22</v>
       </c>
       <c r="L191" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M191" s="18">
         <v>112</v>
@@ -22898,7 +22898,7 @@
         <v>263</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I192" s="16" t="s">
         <v>24</v>
@@ -22934,10 +22934,10 @@
         <v>23</v>
       </c>
       <c r="T192" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U192" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U192" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22999,10 +22999,10 @@
         <v>23</v>
       </c>
       <c r="T193" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U193" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U193" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23013,7 +23013,7 @@
         <v>39</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>22</v>
@@ -23129,10 +23129,10 @@
         <v>23</v>
       </c>
       <c r="T195" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U195" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U195" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23273,7 +23273,7 @@
         <v>36</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D198" s="16" t="s">
         <v>22</v>
@@ -23324,10 +23324,10 @@
         <v>23</v>
       </c>
       <c r="T198" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U198" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23418,7 +23418,7 @@
         <v>268</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I200" s="16" t="s">
         <v>24</v>
@@ -23454,10 +23454,10 @@
         <v>23</v>
       </c>
       <c r="T200" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U200" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23468,7 +23468,7 @@
         <v>36</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>22</v>
@@ -23519,10 +23519,10 @@
         <v>23</v>
       </c>
       <c r="T201" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U201" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U201" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23533,7 +23533,7 @@
         <v>39</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>22</v>
@@ -23548,10 +23548,10 @@
         <v>225</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J202" s="18">
         <v>1</v>
@@ -23743,7 +23743,7 @@
         <v>244</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I205" s="16" t="s">
         <v>24</v>
@@ -23844,10 +23844,10 @@
         <v>23</v>
       </c>
       <c r="T206" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U206" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23858,7 +23858,7 @@
         <v>39</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D207" s="16" t="s">
         <v>22</v>
@@ -23909,10 +23909,10 @@
         <v>23</v>
       </c>
       <c r="T207" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U207" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23974,10 +23974,10 @@
         <v>23</v>
       </c>
       <c r="T208" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U208" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24053,7 +24053,7 @@
         <v>36</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>22</v>
@@ -24068,7 +24068,7 @@
         <v>282</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I210" s="16" t="s">
         <v>20</v>
@@ -24104,21 +24104,21 @@
         <v>23</v>
       </c>
       <c r="T210" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U210" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U210" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>22</v>
@@ -24133,7 +24133,7 @@
         <v>232</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I211" s="16" t="s">
         <v>24</v>
@@ -24263,7 +24263,7 @@
         <v>242</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I213" s="16" t="s">
         <v>24</v>
@@ -24299,10 +24299,10 @@
         <v>23</v>
       </c>
       <c r="T213" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U213" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U213" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24328,7 +24328,7 @@
         <v>285</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I214" s="16" t="s">
         <v>24</v>
@@ -24429,10 +24429,10 @@
         <v>23</v>
       </c>
       <c r="T215" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U215" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24470,7 +24470,7 @@
         <v>32</v>
       </c>
       <c r="L216" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M216" s="18">
         <v>116</v>
@@ -24494,10 +24494,10 @@
         <v>23</v>
       </c>
       <c r="T216" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U216" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U216" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24559,10 +24559,10 @@
         <v>23</v>
       </c>
       <c r="T217" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U217" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24624,10 +24624,10 @@
         <v>23</v>
       </c>
       <c r="T218" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U218" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24638,7 +24638,7 @@
         <v>36</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>22</v>
@@ -24689,10 +24689,10 @@
         <v>23</v>
       </c>
       <c r="T219" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U219" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24819,10 +24819,10 @@
         <v>23</v>
       </c>
       <c r="T221" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U221" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24949,10 +24949,10 @@
         <v>23</v>
       </c>
       <c r="T223" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U223" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24990,7 +24990,7 @@
         <v>23</v>
       </c>
       <c r="L224" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M224" s="18">
         <v>118</v>
@@ -25022,13 +25022,13 @@
     </row>
     <row r="225" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>22</v>
@@ -25079,10 +25079,10 @@
         <v>23</v>
       </c>
       <c r="T225" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U225" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25093,7 +25093,7 @@
         <v>36</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>22</v>
@@ -25223,7 +25223,7 @@
         <v>36</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>22</v>
@@ -25339,10 +25339,10 @@
         <v>23</v>
       </c>
       <c r="T229" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U229" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25368,7 +25368,7 @@
         <v>278</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I230" s="16" t="s">
         <v>20</v>
@@ -25404,10 +25404,10 @@
         <v>23</v>
       </c>
       <c r="T230" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U230" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25433,7 +25433,7 @@
         <v>243</v>
       </c>
       <c r="H231" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I231" s="16" t="s">
         <v>24</v>
@@ -25498,7 +25498,7 @@
         <v>240</v>
       </c>
       <c r="H232" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I232" s="16" t="s">
         <v>24</v>
@@ -25510,7 +25510,7 @@
         <v>30</v>
       </c>
       <c r="L232" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M232" s="18">
         <v>123</v>
@@ -25599,21 +25599,21 @@
         <v>23</v>
       </c>
       <c r="T233" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U233" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U233" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B234" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D234" s="16" t="s">
         <v>22</v>
@@ -25743,7 +25743,7 @@
         <v>36</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D236" s="16" t="s">
         <v>22</v>
@@ -25924,10 +25924,10 @@
         <v>23</v>
       </c>
       <c r="T238" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U238" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25938,7 +25938,7 @@
         <v>45</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>23</v>
@@ -25953,7 +25953,7 @@
         <v>292</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I239" s="10" t="s">
         <v>20</v>
@@ -25989,10 +25989,10 @@
         <v>23</v>
       </c>
       <c r="T239" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U239" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26030,7 +26030,7 @@
         <v>32</v>
       </c>
       <c r="L240" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M240" s="9">
         <v>100</v>
@@ -26054,10 +26054,10 @@
         <v>23</v>
       </c>
       <c r="T240" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U240" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26083,7 +26083,7 @@
         <v>236</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I241" s="10" t="s">
         <v>24</v>
@@ -26095,7 +26095,7 @@
         <v>25</v>
       </c>
       <c r="L241" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M241" s="9">
         <v>115</v>
@@ -26119,10 +26119,10 @@
         <v>23</v>
       </c>
       <c r="T241" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U241" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="242" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26148,7 +26148,7 @@
         <v>268</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I242" s="10" t="s">
         <v>24</v>
@@ -26184,10 +26184,10 @@
         <v>23</v>
       </c>
       <c r="T242" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U242" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="243" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26198,7 +26198,7 @@
         <v>36</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>22</v>
@@ -26327,10 +26327,10 @@
         <v>23</v>
       </c>
       <c r="T244" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U244" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
@@ -26371,10 +26371,10 @@
         <v>267</v>
       </c>
       <c r="H245" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I245" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J245" s="13">
         <v>2</v>
@@ -26407,10 +26407,10 @@
         <v>23</v>
       </c>
       <c r="T245" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U245" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
@@ -26487,10 +26487,10 @@
         <v>23</v>
       </c>
       <c r="T246" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U246" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
@@ -26611,7 +26611,7 @@
         <v>300</v>
       </c>
       <c r="H248" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I248" s="12" t="s">
         <v>20</v>
@@ -26645,10 +26645,10 @@
         <v>23</v>
       </c>
       <c r="T248" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U248" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U248" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
@@ -26723,10 +26723,10 @@
         <v>23</v>
       </c>
       <c r="T249" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U249" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
@@ -26752,7 +26752,7 @@
         <v>36</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>22</v>
@@ -26801,10 +26801,10 @@
         <v>23</v>
       </c>
       <c r="T250" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U250" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U250" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
@@ -26830,7 +26830,7 @@
         <v>36</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>23</v>
@@ -27035,10 +27035,10 @@
         <v>23</v>
       </c>
       <c r="T253" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U253" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
@@ -27064,7 +27064,7 @@
         <v>36</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>23</v>
@@ -27079,7 +27079,7 @@
         <v>263</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I254" s="12" t="s">
         <v>24</v>
@@ -27115,10 +27115,10 @@
         <v>23</v>
       </c>
       <c r="T254" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U254" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U254" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
@@ -27193,10 +27193,10 @@
         <v>23</v>
       </c>
       <c r="T255" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U255" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
@@ -27222,7 +27222,7 @@
         <v>39</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>22</v>
@@ -27271,10 +27271,10 @@
         <v>23</v>
       </c>
       <c r="T256" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U256" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
@@ -27315,7 +27315,7 @@
         <v>268</v>
       </c>
       <c r="H257" s="12" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I257" s="12" t="s">
         <v>24</v>
@@ -27349,10 +27349,10 @@
         <v>23</v>
       </c>
       <c r="T257" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U257" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
@@ -27378,7 +27378,7 @@
         <v>45</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>22</v>
@@ -27393,7 +27393,7 @@
         <v>297</v>
       </c>
       <c r="H258" s="12" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I258" s="12" t="s">
         <v>24</v>
@@ -27429,10 +27429,10 @@
         <v>23</v>
       </c>
       <c r="T258" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U258" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
@@ -27507,10 +27507,10 @@
         <v>23</v>
       </c>
       <c r="T259" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U259" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V259" s="15"/>
       <c r="W259" s="15"/>
@@ -27585,10 +27585,10 @@
         <v>23</v>
       </c>
       <c r="T260" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U260" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U260" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V260" s="15"/>
       <c r="W260" s="15"/>
@@ -27663,10 +27663,10 @@
         <v>23</v>
       </c>
       <c r="T261" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U261" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U261" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V261" s="15"/>
       <c r="W261" s="15"/>
@@ -27770,7 +27770,7 @@
         <v>45</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>23</v>
@@ -27795,7 +27795,7 @@
         <v>29</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M263" s="13">
         <v>108</v>
@@ -27819,10 +27819,10 @@
         <v>23</v>
       </c>
       <c r="T263" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U263" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V263" s="15"/>
       <c r="W263" s="15"/>
@@ -27842,13 +27842,13 @@
     </row>
     <row r="264" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B264" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>22</v>
@@ -27897,10 +27897,10 @@
         <v>23</v>
       </c>
       <c r="T264" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U264" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V264" s="15"/>
       <c r="W264" s="15"/>
@@ -27941,7 +27941,7 @@
         <v>236</v>
       </c>
       <c r="H265" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I265" s="12" t="s">
         <v>24</v>
@@ -27953,7 +27953,7 @@
         <v>25</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M265" s="13">
         <v>115</v>
@@ -27977,10 +27977,10 @@
         <v>23</v>
       </c>
       <c r="T265" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U265" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V265" s="15"/>
       <c r="W265" s="15"/>
@@ -28055,10 +28055,10 @@
         <v>23</v>
       </c>
       <c r="T266" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U266" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V266" s="15"/>
       <c r="W266" s="15"/>
@@ -28135,10 +28135,10 @@
         <v>23</v>
       </c>
       <c r="T267" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U267" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U267" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V267" s="15"/>
       <c r="W267" s="15"/>
@@ -28179,7 +28179,7 @@
         <v>282</v>
       </c>
       <c r="H268" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I268" s="12" t="s">
         <v>20</v>
@@ -28213,10 +28213,10 @@
         <v>23</v>
       </c>
       <c r="T268" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U268" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U268" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V268" s="15"/>
       <c r="W268" s="15"/>
@@ -28291,10 +28291,10 @@
         <v>23</v>
       </c>
       <c r="T269" s="12" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U269" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V269" s="15"/>
       <c r="W269" s="15"/>
@@ -28369,10 +28369,10 @@
         <v>23</v>
       </c>
       <c r="T270" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U270" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V270" s="15"/>
       <c r="W270" s="15"/>
@@ -28447,10 +28447,10 @@
         <v>23</v>
       </c>
       <c r="T271" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U271" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U271" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V271" s="15"/>
       <c r="W271" s="15"/>
@@ -28491,7 +28491,7 @@
         <v>287</v>
       </c>
       <c r="H272" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I272" s="12" t="s">
         <v>20</v>
@@ -28525,10 +28525,10 @@
         <v>23</v>
       </c>
       <c r="T272" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U272" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U272" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V272" s="15"/>
       <c r="W272" s="15"/>
@@ -28569,7 +28569,7 @@
         <v>283</v>
       </c>
       <c r="H273" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I273" s="12" t="s">
         <v>20</v>
@@ -28603,10 +28603,10 @@
         <v>23</v>
       </c>
       <c r="T273" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U273" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U273" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V273" s="15"/>
       <c r="W273" s="15"/>
@@ -28681,10 +28681,10 @@
         <v>23</v>
       </c>
       <c r="T274" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U274" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U274" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V274" s="15"/>
       <c r="W274" s="15"/>
@@ -28725,7 +28725,7 @@
         <v>257</v>
       </c>
       <c r="H275" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I275" s="12" t="s">
         <v>20</v>
@@ -28737,7 +28737,7 @@
         <v>24</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M275" s="13">
         <v>108</v>
@@ -28761,10 +28761,10 @@
         <v>23</v>
       </c>
       <c r="T275" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U275" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U275" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V275" s="15"/>
       <c r="W275" s="15"/>
@@ -28805,10 +28805,10 @@
         <v>287</v>
       </c>
       <c r="H276" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I276" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J276" s="13">
         <v>2</v>
@@ -28841,10 +28841,10 @@
         <v>23</v>
       </c>
       <c r="T276" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U276" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V276" s="15"/>
       <c r="W276" s="15"/>
@@ -28888,7 +28888,7 @@
         <v>26</v>
       </c>
       <c r="I277" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J277" s="13">
         <v>0</v>
@@ -28919,10 +28919,10 @@
         <v>23</v>
       </c>
       <c r="T277" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U277" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U277" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V277" s="15"/>
       <c r="W277" s="15"/>
@@ -28997,10 +28997,10 @@
         <v>23</v>
       </c>
       <c r="T278" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U278" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U278" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V278" s="15"/>
       <c r="W278" s="15"/>
@@ -29026,7 +29026,7 @@
         <v>39</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>22</v>
@@ -29075,10 +29075,10 @@
         <v>23</v>
       </c>
       <c r="T279" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U279" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V279" s="15"/>
       <c r="W279" s="15"/>
@@ -29153,10 +29153,10 @@
         <v>23</v>
       </c>
       <c r="T280" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U280" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V280" s="15"/>
       <c r="W280" s="15"/>
@@ -29197,7 +29197,7 @@
         <v>277</v>
       </c>
       <c r="H281" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I281" s="12" t="s">
         <v>20</v>
@@ -29231,10 +29231,10 @@
         <v>23</v>
       </c>
       <c r="T281" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U281" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U281" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="V281" s="15"/>
       <c r="W281" s="15"/>
@@ -29308,10 +29308,10 @@
         <v>23</v>
       </c>
       <c r="T282" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U282" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U282" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="283" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29370,10 +29370,10 @@
         <v>23</v>
       </c>
       <c r="T283" s="23" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U283" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29399,10 +29399,10 @@
         <v>214</v>
       </c>
       <c r="H284" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I284" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J284" s="9">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>35</v>
       </c>
       <c r="L284" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M284" s="9">
         <v>112</v>
@@ -29435,10 +29435,10 @@
         <v>23</v>
       </c>
       <c r="T284" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U284" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="285" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29500,10 +29500,10 @@
         <v>23</v>
       </c>
       <c r="T285" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U285" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29562,10 +29562,10 @@
         <v>23</v>
       </c>
       <c r="T286" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U286" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="287" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29591,7 +29591,7 @@
         <v>291</v>
       </c>
       <c r="H287" s="12" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I287" s="12" t="s">
         <v>20</v>
@@ -29621,10 +29621,10 @@
         <v>23</v>
       </c>
       <c r="T287" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U287" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U287" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="288" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29662,7 +29662,7 @@
         <v>30</v>
       </c>
       <c r="L288" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M288" s="9">
         <v>121</v>
@@ -29686,10 +29686,10 @@
         <v>23</v>
       </c>
       <c r="T288" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U288" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="289" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29748,10 +29748,10 @@
         <v>23</v>
       </c>
       <c r="T289" s="24" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U289" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="290" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29777,10 +29777,10 @@
         <v>210</v>
       </c>
       <c r="H290" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J290" s="13">
         <v>2</v>
@@ -29811,10 +29811,10 @@
         <v>23</v>
       </c>
       <c r="T290" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U290" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U290" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="291" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29874,10 +29874,10 @@
         <v>23</v>
       </c>
       <c r="T291" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U291" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U291" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="292" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29885,7 +29885,7 @@
         <v>27</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>21</v>
@@ -29939,10 +29939,10 @@
         <v>23</v>
       </c>
       <c r="T292" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U292" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30002,10 +30002,10 @@
         <v>23</v>
       </c>
       <c r="T293" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U293" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30065,10 +30065,10 @@
         <v>23</v>
       </c>
       <c r="T294" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U294" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="295" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30079,7 +30079,7 @@
         <v>36</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>22</v>
@@ -30094,7 +30094,7 @@
         <v>218</v>
       </c>
       <c r="H295" s="16" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I295" s="16" t="s">
         <v>20</v>
@@ -30142,7 +30142,7 @@
         <v>39</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>22</v>
@@ -30191,10 +30191,10 @@
         <v>23</v>
       </c>
       <c r="T296" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U296" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30220,7 +30220,7 @@
         <v>300</v>
       </c>
       <c r="H297" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I297" s="16" t="s">
         <v>20</v>
@@ -30254,10 +30254,10 @@
         <v>23</v>
       </c>
       <c r="T297" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U297" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30315,10 +30315,10 @@
         <v>23</v>
       </c>
       <c r="T298" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U298" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U298" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="299" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30378,10 +30378,10 @@
         <v>23</v>
       </c>
       <c r="T299" s="22" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U299" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="300" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30441,10 +30441,10 @@
         <v>23</v>
       </c>
       <c r="T300" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U300" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30506,10 +30506,10 @@
         <v>23</v>
       </c>
       <c r="T301" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U301" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30535,7 +30535,7 @@
         <v>244</v>
       </c>
       <c r="H302" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I302" s="16" t="s">
         <v>24</v>
@@ -30569,10 +30569,10 @@
         <v>23</v>
       </c>
       <c r="T302" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U302" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U302" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="303" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30598,7 +30598,7 @@
         <v>259</v>
       </c>
       <c r="H303" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I303" s="16" t="s">
         <v>24</v>
@@ -30632,10 +30632,10 @@
         <v>23</v>
       </c>
       <c r="T303" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U303" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U303" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="304" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30695,10 +30695,10 @@
         <v>23</v>
       </c>
       <c r="T304" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U304" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="U304" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="305" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30758,10 +30758,10 @@
         <v>23</v>
       </c>
       <c r="T305" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U305" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="306" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30823,10 +30823,10 @@
         <v>23</v>
       </c>
       <c r="T306" s="21" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U306" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="307" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30852,7 +30852,7 @@
         <v>267</v>
       </c>
       <c r="H307" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I307" s="16" t="s">
         <v>24</v>
@@ -30888,10 +30888,10 @@
         <v>23</v>
       </c>
       <c r="T307" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U307" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="308" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30902,7 +30902,7 @@
         <v>45</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>22</v>
@@ -30917,7 +30917,7 @@
         <v>254</v>
       </c>
       <c r="H308" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I308" s="16" t="s">
         <v>20</v>
@@ -30929,7 +30929,7 @@
         <v>29</v>
       </c>
       <c r="L308" s="17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M308" s="18">
         <v>114</v>
@@ -30953,10 +30953,10 @@
         <v>23</v>
       </c>
       <c r="T308" s="21" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U308" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="309" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -30967,7 +30967,7 @@
         <v>36</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>22</v>
@@ -31016,10 +31016,10 @@
         <v>23</v>
       </c>
       <c r="T309" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U309" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="310" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31045,7 +31045,7 @@
         <v>261</v>
       </c>
       <c r="H310" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I310" s="16" t="s">
         <v>24</v>
@@ -31057,7 +31057,7 @@
         <v>34</v>
       </c>
       <c r="L310" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M310" s="18">
         <v>113</v>
@@ -31081,10 +31081,10 @@
         <v>23</v>
       </c>
       <c r="T310" s="21" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U310" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31144,10 +31144,10 @@
         <v>23</v>
       </c>
       <c r="T311" s="22" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U311" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="312" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31207,10 +31207,10 @@
         <v>23</v>
       </c>
       <c r="T312" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U312" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31270,10 +31270,10 @@
         <v>23</v>
       </c>
       <c r="T313" s="21" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U313" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="314" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31333,10 +31333,10 @@
         <v>23</v>
       </c>
       <c r="T314" s="21" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U314" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="315" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31362,7 +31362,7 @@
         <v>235</v>
       </c>
       <c r="H315" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I315" s="16" t="s">
         <v>20</v>
@@ -31396,10 +31396,10 @@
         <v>23</v>
       </c>
       <c r="T315" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U315" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31425,7 +31425,7 @@
         <v>257</v>
       </c>
       <c r="H316" s="16" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I316" s="16" t="s">
         <v>24</v>
@@ -31459,15 +31459,15 @@
         <v>23</v>
       </c>
       <c r="T316" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U316" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="317" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B317" s="16" t="s">
         <v>36</v>
@@ -31522,10 +31522,10 @@
         <v>23</v>
       </c>
       <c r="T317" s="21" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U317" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31585,10 +31585,10 @@
         <v>23</v>
       </c>
       <c r="T318" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U318" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="319" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31648,10 +31648,10 @@
         <v>23</v>
       </c>
       <c r="T319" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U319" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31677,7 +31677,7 @@
         <v>260</v>
       </c>
       <c r="H320" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I320" s="16" t="s">
         <v>20</v>
@@ -31713,10 +31713,10 @@
         <v>23</v>
       </c>
       <c r="T320" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U320" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="321" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31776,10 +31776,10 @@
         <v>23</v>
       </c>
       <c r="T321" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U321" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="322" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31839,10 +31839,10 @@
         <v>23</v>
       </c>
       <c r="T322" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U322" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="323" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31868,7 +31868,7 @@
         <v>273</v>
       </c>
       <c r="H323" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I323" s="16" t="s">
         <v>20</v>
@@ -31902,10 +31902,10 @@
         <v>23</v>
       </c>
       <c r="T323" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U323" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="324" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31965,10 +31965,10 @@
         <v>23</v>
       </c>
       <c r="T324" s="22" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U324" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="325" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31992,7 +31992,7 @@
       </c>
       <c r="G325" s="18"/>
       <c r="H325" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I325" s="16" t="s">
         <v>24</v>
@@ -32026,10 +32026,10 @@
         <v>23</v>
       </c>
       <c r="T325" s="21" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U325" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="326" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32040,7 +32040,7 @@
         <v>36</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D326" s="16" t="s">
         <v>22</v>
@@ -32055,7 +32055,7 @@
         <v>248</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I326" s="16" t="s">
         <v>24</v>
@@ -32091,10 +32091,10 @@
         <v>23</v>
       </c>
       <c r="T326" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U326" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="327" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32154,10 +32154,10 @@
         <v>23</v>
       </c>
       <c r="T327" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="U327" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="328" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32183,7 +32183,7 @@
         <v>289</v>
       </c>
       <c r="H328" s="16" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I328" s="16" t="s">
         <v>20</v>
@@ -32219,10 +32219,10 @@
         <v>23</v>
       </c>
       <c r="T328" s="12" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="U328" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="329" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32233,7 +32233,7 @@
         <v>39</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D329" s="16" t="s">
         <v>23</v>
@@ -32248,7 +32248,7 @@
         <v>287</v>
       </c>
       <c r="H329" s="16" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I329" s="16" t="s">
         <v>24</v>
@@ -32284,10 +32284,10 @@
         <v>23</v>
       </c>
       <c r="T329" s="23" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="U329" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="330" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32347,10 +32347,10 @@
         <v>23</v>
       </c>
       <c r="T330" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U330" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U330" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="331" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32358,7 +32358,7 @@
         <v>25</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C331" s="12" t="s">
         <v>40</v>
@@ -32410,10 +32410,10 @@
         <v>23</v>
       </c>
       <c r="T331" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U331" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="332" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32424,7 +32424,7 @@
         <v>36</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>22</v>
@@ -32439,7 +32439,7 @@
         <v>223</v>
       </c>
       <c r="H332" s="12" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I332" s="12" t="s">
         <v>24</v>
@@ -32473,10 +32473,10 @@
         <v>23</v>
       </c>
       <c r="T332" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U332" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="333" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32502,7 +32502,7 @@
         <v>222</v>
       </c>
       <c r="H333" s="12" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I333" s="12" t="s">
         <v>20</v>
@@ -32538,10 +32538,10 @@
         <v>23</v>
       </c>
       <c r="T333" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U333" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U333" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="334" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32601,10 +32601,10 @@
         <v>23</v>
       </c>
       <c r="T334" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U334" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32664,10 +32664,10 @@
         <v>23</v>
       </c>
       <c r="T335" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U335" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="336" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32727,10 +32727,10 @@
         <v>23</v>
       </c>
       <c r="T336" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U336" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="337" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32792,10 +32792,10 @@
         <v>23</v>
       </c>
       <c r="T337" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U337" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32821,7 +32821,7 @@
         <v>235</v>
       </c>
       <c r="H338" s="12" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="I338" s="12" t="s">
         <v>24</v>
@@ -32855,10 +32855,10 @@
         <v>23</v>
       </c>
       <c r="T338" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U338" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="339" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32920,10 +32920,10 @@
         <v>23</v>
       </c>
       <c r="T339" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U339" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32983,10 +32983,10 @@
         <v>23</v>
       </c>
       <c r="T340" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U340" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U340" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33046,10 +33046,10 @@
         <v>23</v>
       </c>
       <c r="T341" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U341" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="342" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33109,10 +33109,10 @@
         <v>23</v>
       </c>
       <c r="T342" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U342" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U342" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33138,7 +33138,7 @@
         <v>298</v>
       </c>
       <c r="H343" s="12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I343" s="12" t="s">
         <v>24</v>
@@ -33150,7 +33150,7 @@
         <v>32</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M343" s="13">
         <v>124</v>
@@ -33174,10 +33174,10 @@
         <v>23</v>
       </c>
       <c r="T343" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U343" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="344" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33300,10 +33300,10 @@
         <v>23</v>
       </c>
       <c r="T345" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U345" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="346" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33363,10 +33363,10 @@
         <v>23</v>
       </c>
       <c r="T346" s="25" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="U346" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="347" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33426,10 +33426,10 @@
         <v>23</v>
       </c>
       <c r="T347" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U347" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="U347" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="348" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -33440,7 +33440,7 @@
         <v>36</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>23</v>
@@ -33455,7 +33455,7 @@
         <v>220</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I348" s="10" t="s">
         <v>24</v>
